--- a/biology/Zoologie/Atypus/Atypus.xlsx
+++ b/biology/Zoologie/Atypus/Atypus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atypus est un genre d'araignées mygalomorphes de la famille des Atypidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atypus est un genre d'araignées mygalomorphes de la famille des Atypidae.
 </t>
         </is>
       </c>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-Les espèces de ce genre se rencontrent en Asie, en Europe, en Afrique du Nord et en Amérique du Nord[1]. Les espèces européennes sont Atypus affinis, Atypus muralis et Atypus piceus selon Faunaeur.
-Population
-D'après le nombre d'observation rapporté sur le site GBIF, le nombre d'individus de ce genre augmente (information datant de 2023). Elles sont présentes tout au long de l'année, il y a un pic en mai, juin, juillet puis un autre en septembre, octobre, novembre.
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, en Europe, en Afrique du Nord et en Amérique du Nord. Les espèces européennes sont Atypus affinis, Atypus muralis et Atypus piceus selon Faunaeur.
 </t>
         </is>
       </c>
@@ -542,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Population</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le nombre d'observation rapporté sur le site GBIF, le nombre d'individus de ce genre augmente (information datant de 2023). Elles sont présentes tout au long de l'année, il y a un pic en mai, juin, juillet puis un autre en septembre, octobre, novembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Atypus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atypus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Critères d'identification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">- Trois griffes tarsales
 - Taille moyenne ou grande
@@ -558,37 +612,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Atypus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Atypus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Anecdote</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Les paysans du sud des Carpates avaient l'habitude de découper les chaussettes de soie construits par ces araignées et de couvrir les blessures avec la doublure intérieure. Il aurait facilité la cicatrisation, et même lié à la peau. On pense que cela est dû aux propriétés antiseptiques de la soie d'araignée (qui est composée de protéines ). </t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -610,12 +633,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Anecdote</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Les paysans du sud des Carpates avaient l'habitude de découper les chaussettes de soie construits par ces araignées et de couvrir les blessures avec la doublure intérieure. Il aurait facilité la cicatrisation, et même lié à la peau. On pense que cela est dû aux propriétés antiseptiques de la soie d'araignée (qui est composée de protéines ). </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Atypus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atypus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 25/08/2022)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 25/08/2022) :
 Atypus affinis Eichwald, 1830
 Atypus baotianmanensis Hu, 1994
 Atypus baotingensis Li, Xu, Zhang, Liu, Zhang &amp; Li, 2018
@@ -649,45 +707,13 @@
 Atypus wataribabaorum Tanikawa, 2006
 Atypus wii Siliwal, Kumar &amp; Raven, 2014
 Atypus yajuni Zhu, Zhang, Song &amp; Qu, 2006
-Selon World Spider Catalog (version 20.5, 2020)[3] :
+Selon World Spider Catalog (version 20.5, 2020) :
 † Atypus beigeli (Wunderlich, 2011)
 † Atypus juvenis (Wunderlich, 2011)
 † Atypus spinosus (Wunderlich, 2011)</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Atypus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Atypus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Systématique et taxinomie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Latreille en 1804.
-Proatypus[4] a été placé en synonymie par Kraus et Baur en 1974[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -709,10 +735,46 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Systématique et taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Latreille en 1804.
+Proatypus a été placé en synonymie par Kraus et Baur en 1974.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Atypus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atypus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Latreille, 1804 : « Tableau méthodique des Insectes. » Nouveau Dictionnaire d'Histoire Naturelle, Paris, vol. 24, p. 129-295.</t>
         </is>
